--- a/git_sample.xlsx
+++ b/git_sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\git first\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E7FBC1-E941-4BF5-9B31-D5D60EA6E4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A70BDF-37F0-4E37-B44B-1DD3E441A40F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -348,10 +348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -376,6 +376,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>-2148</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
